--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H2">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N2">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O2">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P2">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q2">
-        <v>1.788129716822354</v>
+        <v>0.2952081234409999</v>
       </c>
       <c r="R2">
-        <v>1.788129716822354</v>
+        <v>2.656873110969</v>
       </c>
       <c r="S2">
-        <v>0.1663719142002483</v>
+        <v>0.01731173711039575</v>
       </c>
       <c r="T2">
-        <v>0.1663719142002483</v>
+        <v>0.01731173711039576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H3">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P3">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q3">
-        <v>5.143965358316373</v>
+        <v>0.8218866988383333</v>
       </c>
       <c r="R3">
-        <v>5.143965358316373</v>
+        <v>7.396980289545001</v>
       </c>
       <c r="S3">
-        <v>0.478606979790988</v>
+        <v>0.04819747606865529</v>
       </c>
       <c r="T3">
-        <v>0.478606979790988</v>
+        <v>0.04819747606865529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H4">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N4">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O4">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P4">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q4">
-        <v>1.441111598825978</v>
+        <v>0.2347427650003333</v>
       </c>
       <c r="R4">
-        <v>1.441111598825978</v>
+        <v>2.112684885003</v>
       </c>
       <c r="S4">
-        <v>0.134084509091953</v>
+        <v>0.01376589840714654</v>
       </c>
       <c r="T4">
-        <v>0.134084509091953</v>
+        <v>0.01376589840714654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H5">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N5">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O5">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P5">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q5">
-        <v>1.937724790253622</v>
+        <v>0.3088520218373334</v>
       </c>
       <c r="R5">
-        <v>1.937724790253622</v>
+        <v>2.779668196536</v>
       </c>
       <c r="S5">
-        <v>0.1802906016911735</v>
+        <v>0.01811184917860407</v>
       </c>
       <c r="T5">
-        <v>0.1802906016911735</v>
+        <v>0.01811184917860407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.072919</v>
+      </c>
+      <c r="H6">
+        <v>0.218757</v>
+      </c>
+      <c r="I6">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="J6">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9942166666666665</v>
+      </c>
+      <c r="N6">
+        <v>2.98265</v>
+      </c>
+      <c r="O6">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="P6">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="Q6">
+        <v>0.07249728511666666</v>
+      </c>
+      <c r="R6">
+        <v>0.6524755660499999</v>
+      </c>
+      <c r="S6">
+        <v>0.004251420748616268</v>
+      </c>
+      <c r="T6">
+        <v>0.004251420748616268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.93355</v>
+      </c>
+      <c r="I7">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J7">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.048438999999999</v>
+      </c>
+      <c r="N7">
+        <v>12.145317</v>
+      </c>
+      <c r="O7">
+        <v>0.1703267688113503</v>
+      </c>
+      <c r="P7">
+        <v>0.1703267688113503</v>
+      </c>
+      <c r="Q7">
+        <v>2.609286409483333</v>
+      </c>
+      <c r="R7">
+        <v>23.48357768535</v>
+      </c>
+      <c r="S7">
+        <v>0.1530150317009545</v>
+      </c>
+      <c r="T7">
+        <v>0.1530150317009545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.457775918943849</v>
-      </c>
-      <c r="H6">
-        <v>0.457775918943849</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.9542975877222321</v>
-      </c>
-      <c r="N6">
-        <v>0.9542975877222321</v>
-      </c>
-      <c r="O6">
-        <v>0.04064599522563717</v>
-      </c>
-      <c r="P6">
-        <v>0.04064599522563717</v>
-      </c>
-      <c r="Q6">
-        <v>0.4368544551654431</v>
-      </c>
-      <c r="R6">
-        <v>0.4368544551654431</v>
-      </c>
-      <c r="S6">
-        <v>0.04064599522563717</v>
-      </c>
-      <c r="T6">
-        <v>0.04064599522563717</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.93355</v>
+      </c>
+      <c r="I8">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J8">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.27122833333333</v>
+      </c>
+      <c r="N8">
+        <v>33.813685</v>
+      </c>
+      <c r="O8">
+        <v>0.4742054659960562</v>
+      </c>
+      <c r="P8">
+        <v>0.4742054659960562</v>
+      </c>
+      <c r="Q8">
+        <v>7.264494514638888</v>
+      </c>
+      <c r="R8">
+        <v>65.38045063174999</v>
+      </c>
+      <c r="S8">
+        <v>0.4260079899274009</v>
+      </c>
+      <c r="T8">
+        <v>0.4260079899274009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.93355</v>
+      </c>
+      <c r="I9">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J9">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.219226333333333</v>
+      </c>
+      <c r="N9">
+        <v>9.657679</v>
+      </c>
+      <c r="O9">
+        <v>0.1354399607920677</v>
+      </c>
+      <c r="P9">
+        <v>0.1354399607920676</v>
+      </c>
+      <c r="Q9">
+        <v>2.074845025605555</v>
+      </c>
+      <c r="R9">
+        <v>18.67360523045</v>
+      </c>
+      <c r="S9">
+        <v>0.1216740623849211</v>
+      </c>
+      <c r="T9">
+        <v>0.1216740623849211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.93355</v>
+      </c>
+      <c r="I10">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J10">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.235549333333334</v>
+      </c>
+      <c r="N10">
+        <v>12.706648</v>
+      </c>
+      <c r="O10">
+        <v>0.1781989137264352</v>
+      </c>
+      <c r="P10">
+        <v>0.1781989137264352</v>
+      </c>
+      <c r="Q10">
+        <v>2.729882137822222</v>
+      </c>
+      <c r="R10">
+        <v>24.5689392404</v>
+      </c>
+      <c r="S10">
+        <v>0.1600870645478312</v>
+      </c>
+      <c r="T10">
+        <v>0.1600870645478311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.93355</v>
+      </c>
+      <c r="I11">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J11">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9942166666666665</v>
+      </c>
+      <c r="N11">
+        <v>2.98265</v>
+      </c>
+      <c r="O11">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="P11">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="Q11">
+        <v>0.6407892119444443</v>
+      </c>
+      <c r="R11">
+        <v>5.767102907499999</v>
+      </c>
+      <c r="S11">
+        <v>0.03757746992547432</v>
+      </c>
+      <c r="T11">
+        <v>0.03757746992547432</v>
       </c>
     </row>
   </sheetData>
